--- a/src/CryptoMarket/Resources/BrainStormin_v1.0.xlsx
+++ b/src/CryptoMarket/Resources/BrainStormin_v1.0.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="63">
   <si>
     <t>Action</t>
   </si>
@@ -195,6 +195,27 @@
   </si>
   <si>
     <t>FeeRate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Haggle History </t>
+  </si>
+  <si>
+    <t>Outome</t>
+  </si>
+  <si>
+    <t>Outcome0</t>
+  </si>
+  <si>
+    <t>1/ 0.002</t>
+  </si>
+  <si>
+    <t>?optional</t>
+  </si>
+  <si>
+    <t>Them</t>
+  </si>
+  <si>
+    <t>You</t>
   </si>
 </sst>
 </file>
@@ -202,7 +223,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="170" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -265,7 +286,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -273,11 +294,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -294,8 +330,18 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="10" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="10" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="170" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="170" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="47" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="22" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="47" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="22" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -534,14 +580,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>323849</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>180974</xdr:rowOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -550,8 +596,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2247899" y="2847974"/>
-          <a:ext cx="4848226" cy="1752601"/>
+          <a:off x="2247899" y="3228975"/>
+          <a:ext cx="4848226" cy="1914526"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -587,13 +633,24 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-GB" sz="1100"/>
+            <a:t>Outcome0:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0"/>
+            <a:t> Customer accepts Posted offer fist time.</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100"/>
             <a:t>Outcome 1 : </a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:r>
             <a:rPr lang="en-GB" sz="1100"/>
-            <a:t>Last offer = Cutomer's - Customer</a:t>
+            <a:t>Last offer is Cutomer's - Customer</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-GB" sz="1100" baseline="0"/>
@@ -633,7 +690,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-GB" sz="1100" baseline="0"/>
-            <a:t>Outcome 3:  Last Vendor counter offer limit = 1, Vendor can't 	put a counter offer anymore - system awaits 	for Outcome1 or 2 above</a:t>
+            <a:t>Outcome 44:  Last Vendor counter offer limit = 1, Vendor can't 	put a counter offer anymore - system awaits 	for Outcome1 or 2 above</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -650,13 +707,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>114299</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>314324</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1011,16 +1068,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1029,7 +1086,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2590800" y="4781550"/>
+          <a:off x="2457450" y="5276850"/>
           <a:ext cx="3714750" cy="1724025"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1739,10 +1796,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S19"/>
+  <dimension ref="A1:S45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+      <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1751,9 +1808,9 @@
     <col min="5" max="5" width="15.7109375" customWidth="1"/>
     <col min="6" max="6" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.140625" customWidth="1"/>
-    <col min="10" max="10" width="9.28515625" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" customWidth="1"/>
+    <col min="10" max="10" width="15.42578125" customWidth="1"/>
+    <col min="11" max="11" width="15.140625" customWidth="1"/>
     <col min="15" max="15" width="18" customWidth="1"/>
     <col min="18" max="18" width="20.7109375" customWidth="1"/>
     <col min="19" max="19" width="18.5703125" customWidth="1"/>
@@ -2193,71 +2250,52 @@
         <v>42480.634722222225</v>
       </c>
     </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B9" s="1"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="4"/>
+      <c r="R9" s="11"/>
+      <c r="S9" s="11"/>
+    </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10" s="1">
-        <v>1006</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="H10" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="I10" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="J10" s="14">
-        <v>1E-4</v>
-      </c>
-      <c r="K10" s="17">
-        <v>1.9E-2</v>
-      </c>
-      <c r="L10" s="2">
-        <v>1.9</v>
-      </c>
-      <c r="M10" s="2">
-        <v>1</v>
-      </c>
-      <c r="N10" s="2">
-        <v>2</v>
-      </c>
-      <c r="O10" s="2">
-        <v>0</v>
-      </c>
-      <c r="P10" s="2">
-        <v>1003</v>
-      </c>
-      <c r="Q10" s="4">
-        <v>360</v>
-      </c>
-      <c r="R10" s="11">
-        <v>42480.638888888891</v>
-      </c>
-      <c r="S10" s="11">
-        <v>42480.638888888891</v>
-      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="4"/>
+      <c r="R10" s="11"/>
+      <c r="S10" s="11"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="B11" s="1">
-        <v>1006</v>
+        <v>1002</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>14</v>
@@ -2271,8 +2309,8 @@
       <c r="F11" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G11" s="4" t="s">
-        <v>28</v>
+      <c r="G11" s="3" t="s">
+        <v>59</v>
       </c>
       <c r="H11" s="12" t="s">
         <v>48</v>
@@ -2283,10 +2321,10 @@
       <c r="J11" s="14">
         <v>1E-4</v>
       </c>
-      <c r="K11" s="17">
+      <c r="K11" s="16">
         <v>1.9E-2</v>
       </c>
-      <c r="L11" s="2">
+      <c r="L11" s="4">
         <v>1.9</v>
       </c>
       <c r="M11" s="2">
@@ -2298,37 +2336,385 @@
       <c r="O11" s="2">
         <v>0</v>
       </c>
-      <c r="P11" s="2">
+      <c r="P11">
+        <v>1001</v>
+      </c>
+      <c r="Q11" s="4">
+        <v>180</v>
+      </c>
+      <c r="R11" s="11">
+        <v>42480.623310185183</v>
+      </c>
+      <c r="S11" s="11">
+        <v>42480.623310185183</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="1">
+        <v>1006</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H12" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="I12" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="J12" s="14">
+        <v>1E-4</v>
+      </c>
+      <c r="K12" s="17">
+        <v>1.9E-2</v>
+      </c>
+      <c r="L12" s="2">
+        <v>1.9</v>
+      </c>
+      <c r="M12" s="2">
+        <v>1</v>
+      </c>
+      <c r="N12" s="2">
+        <v>2</v>
+      </c>
+      <c r="O12" s="2">
+        <v>0</v>
+      </c>
+      <c r="P12" s="2">
         <v>1003</v>
       </c>
-      <c r="Q11" s="4">
+      <c r="Q12" s="4">
         <v>360</v>
       </c>
-      <c r="R11" s="11">
+      <c r="R12" s="11">
+        <v>42480.638888888891</v>
+      </c>
+      <c r="S12" s="11">
+        <v>42480.638888888891</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" s="1">
+        <v>1006</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H13" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="I13" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="J13" s="14">
+        <v>1E-4</v>
+      </c>
+      <c r="K13" s="17">
+        <v>1.9E-2</v>
+      </c>
+      <c r="L13" s="2">
+        <v>1.9</v>
+      </c>
+      <c r="M13" s="2">
+        <v>1</v>
+      </c>
+      <c r="N13" s="2">
+        <v>2</v>
+      </c>
+      <c r="O13" s="2">
+        <v>0</v>
+      </c>
+      <c r="P13" s="2">
+        <v>1003</v>
+      </c>
+      <c r="Q13" s="4">
+        <v>360</v>
+      </c>
+      <c r="R13" s="11">
         <v>42480.637499999997</v>
       </c>
-      <c r="S11" s="11">
+      <c r="S13" s="11">
         <v>42480.637499999997</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="13" t="s">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="13" t="s">
         <v>47</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>56</v>
+      </c>
+      <c r="B39" t="s">
+        <v>60</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="F39" t="s">
+        <v>53</v>
+      </c>
+      <c r="G39" t="s">
+        <v>8</v>
+      </c>
+      <c r="H39" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I39" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="J39" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="K39" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B40" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="C40" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D40" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E40" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="F40" s="20"/>
+      <c r="G40" s="18">
+        <v>0</v>
+      </c>
+      <c r="H40" s="18">
+        <v>4</v>
+      </c>
+      <c r="I40" s="18">
+        <v>0</v>
+      </c>
+      <c r="J40" s="21">
+        <v>42480.621921296297</v>
+      </c>
+      <c r="K40" s="21">
+        <v>42480.621921296297</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>62</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E41" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="F41" s="16">
+        <v>1.9E-2</v>
+      </c>
+      <c r="G41" s="4">
+        <v>1.9</v>
+      </c>
+      <c r="H41" s="2">
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <v>1001</v>
+      </c>
+      <c r="J41" s="11">
+        <v>42480.623310185183</v>
+      </c>
+      <c r="K41" s="11">
+        <v>42480.623310185183</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>61</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E42" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="F42" s="17">
+        <v>1.9E-2</v>
+      </c>
+      <c r="G42" s="2">
+        <v>1.9</v>
+      </c>
+      <c r="H42" s="3">
+        <v>3</v>
+      </c>
+      <c r="I42">
+        <v>1002</v>
+      </c>
+      <c r="J42" s="11">
+        <v>42480.626087962963</v>
+      </c>
+      <c r="K42" s="11">
+        <v>42480.626087962963</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>62</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E43" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="F43" s="17">
+        <v>1.9E-2</v>
+      </c>
+      <c r="G43" s="2">
+        <v>1.9</v>
+      </c>
+      <c r="H43" s="2">
+        <v>0</v>
+      </c>
+      <c r="I43" s="2">
+        <v>1003</v>
+      </c>
+      <c r="J43" s="11">
+        <v>42480.629560185182</v>
+      </c>
+      <c r="K43" s="11">
+        <v>42480.629560185182</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>61</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E44" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="F44" s="17">
+        <v>1.9E-2</v>
+      </c>
+      <c r="G44" s="2">
+        <v>1.9</v>
+      </c>
+      <c r="H44" s="3">
+        <v>2</v>
+      </c>
+      <c r="I44" s="2">
+        <v>1004</v>
+      </c>
+      <c r="J44" s="11">
+        <v>42480.633726851855</v>
+      </c>
+      <c r="K44" s="11">
+        <v>42480.633726851855</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B45" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="C45" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="D45" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="E45" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="F45" s="25">
+        <v>1.9E-2</v>
+      </c>
+      <c r="G45" s="26">
+        <v>1.9</v>
+      </c>
+      <c r="H45" s="26">
+        <v>0</v>
+      </c>
+      <c r="I45" s="26">
+        <v>1003</v>
+      </c>
+      <c r="J45" s="27">
+        <v>42480.634722222225</v>
+      </c>
+      <c r="K45" s="27">
+        <v>42480.634722222225</v>
       </c>
     </row>
   </sheetData>
